--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35D8C1-35DD-4822-9205-D4D7D9360E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD3783-DD91-4F62-A331-CE78EEABA6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD3783-DD91-4F62-A331-CE78EEABA6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7B46F9-A2A3-4DBA-9434-47D203D4AE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7B46F9-A2A3-4DBA-9434-47D203D4AE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF733F2-338C-4D80-A18E-2DA18CF9A6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF733F2-338C-4D80-A18E-2DA18CF9A6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42149FA2-672C-4E6C-A15E-EF545A70E6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42149FA2-672C-4E6C-A15E-EF545A70E6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C9914-E1AC-4561-9D29-576A4C0F907C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C9914-E1AC-4561-9D29-576A4C0F907C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D206058-CD3C-4291-BD84-A2B0393CC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D206058-CD3C-4291-BD84-A2B0393CC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B303C8-13BD-4E4F-9F6D-5041D3066627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B303C8-13BD-4E4F-9F6D-5041D3066627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19C5CE4-9561-4512-99AA-8A4964D90892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2irs\Desktop\E5\RPA Expertise\Projet\AutomatisationGestionCommandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19C5CE4-9561-4512-99AA-8A4964D90892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57321AD-891C-48DD-BB90-5397CDEF27DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
